--- a/biology/Botanique/Frédéric_Rouzaud/Frédéric_Rouzaud.xlsx
+++ b/biology/Botanique/Frédéric_Rouzaud/Frédéric_Rouzaud.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fr%C3%A9d%C3%A9ric_Rouzaud</t>
+          <t>Frédéric_Rouzaud</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Frédéric Rouzaud, né le 19 juin 1967[1] est un homme d'affaires et chef d'entreprise français. Il est le directeur général de la maison de champagne Louis Roederer depuis le 1er juin 2006.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Frédéric Rouzaud, né le 19 juin 1967 est un homme d'affaires et chef d'entreprise français. Il est le directeur général de la maison de champagne Louis Roederer depuis le 1er juin 2006.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fr%C3%A9d%C3%A9ric_Rouzaud</t>
+          <t>Frédéric_Rouzaud</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Frédéric Rouzaud gravit tous les échelons avant de prendre la direction de la maison de champagne Roederer en 2006. Il incarne la 6e génération de cette famille à la tête de l'entreprise[2]. 
-Il a pour ambition « d’inventer le champagne de demain pour que Louis Roederer soit toujours considéré dans 20 ans comme la référence sur ce marché »[3]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Frédéric Rouzaud gravit tous les échelons avant de prendre la direction de la maison de champagne Roederer en 2006. Il incarne la 6e génération de cette famille à la tête de l'entreprise. 
+Il a pour ambition « d’inventer le champagne de demain pour que Louis Roederer soit toujours considéré dans 20 ans comme la référence sur ce marché ». 
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fr%C3%A9d%C3%A9ric_Rouzaud</t>
+          <t>Frédéric_Rouzaud</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Fortune</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La fortune de Frédéric Rouzaud et de sa famille est estimée à 700 millions d'euros en 2014[4]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La fortune de Frédéric Rouzaud et de sa famille est estimée à 700 millions d'euros en 2014. 
 </t>
         </is>
       </c>
